--- a/doc/import/teachers_import.xlsx
+++ b/doc/import/teachers_import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="125">
   <si>
     <t>冯敏</t>
   </si>
@@ -415,6 +415,167 @@
   </si>
   <si>
     <t>生物,英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01-1</t>
+    </r>
+  </si>
+  <si>
+    <t>教师01-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>02-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师04-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师05-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师07-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师08-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师09-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师10-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师11-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师13-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教师14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教师15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教师16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师17-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师18-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教师19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师20-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师21-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师22-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教师23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师24-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师25-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2188,6 +2349,314 @@
         <v>56</v>
       </c>
     </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>550101</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>550102</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>550104</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G80">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>550105</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>550107</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>550108</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G83">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>550109</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G84">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>550110</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>550111</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G86">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>550113</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G87">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>550114</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G88">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>550115</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>550116</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>550117</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>550118</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G92">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>550119</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>550120</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G94">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>550121</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>550122</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G96">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>550123</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G97">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>550124</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G98">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>550125</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G99">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
